--- a/Free Hanging Tests/Experiment 2/R114_20ft/Fourier Analysis/dylans fourier table.xlsx
+++ b/Free Hanging Tests/Experiment 2/R114_20ft/Fourier Analysis/dylans fourier table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="700" yWindow="0" windowWidth="24060" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
   <si>
     <t>Axial midpoint Metal</t>
   </si>
@@ -58,6 +58,12 @@
   </si>
   <si>
     <t>:= Noisy indestinguishible FFT</t>
+  </si>
+  <si>
+    <t>FFT</t>
+  </si>
+  <si>
+    <t>Prony</t>
   </si>
 </sst>
 </file>
@@ -119,8 +125,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -140,17 +156,27 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="21">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -480,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:J16"/>
+  <dimension ref="A2:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -493,6 +519,11 @@
     <col min="10" max="10" width="27.6640625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+    </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>8</v>
@@ -756,6 +787,85 @@
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>4</v>
+      </c>
+      <c r="F20">
+        <v>5</v>
+      </c>
+      <c r="G20">
+        <v>6</v>
+      </c>
+      <c r="H20">
+        <v>7</v>
+      </c>
+      <c r="I20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
